--- a/Gangbuk_edit2/Jungnanggu_edit2.xlsx
+++ b/Gangbuk_edit2/Jungnanggu_edit2.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimyihwan\OneDrive - kaist.ac.kr\Prokim\web scraping\Gangbuk_edit2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_A08EDF97D8A7B7F3D4160B6E0BDDDC47512C806C" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{256DF578-D033-4028-9891-C3331227783B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edit2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="300">
   <si>
     <t>읍면동</t>
   </si>
@@ -265,42 +271,6 @@
     <t>e편한세상화랑대</t>
   </si>
   <si>
-    <t>두산1차</t>
-  </si>
-  <si>
-    <t>두산2차</t>
-  </si>
-  <si>
-    <t>두산3차</t>
-  </si>
-  <si>
-    <t>두산4차/5차</t>
-  </si>
-  <si>
-    <t>두산6차</t>
-  </si>
-  <si>
-    <t>면목동금호어울림</t>
-  </si>
-  <si>
-    <t>묵동자이</t>
-  </si>
-  <si>
-    <t>신성미소지움</t>
-  </si>
-  <si>
-    <t>예성그린캐슬(577)</t>
-  </si>
-  <si>
-    <t>용마산역코오롱하늘채</t>
-  </si>
-  <si>
-    <t>태영데시앙(2단지)</t>
-  </si>
-  <si>
-    <t>한신2차</t>
-  </si>
-  <si>
     <t>한일써너스빌</t>
   </si>
   <si>
@@ -914,17 +884,64 @@
   </si>
   <si>
     <t>200세대</t>
+  </si>
+  <si>
+    <t>면목두산1단지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>면목두산4,5단지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>면목두산2,3단지</t>
+  </si>
+  <si>
+    <t>면목두산6단지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>면목금호어울림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵동자이1단지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵동자이2단지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>면목신성미소지움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예성그린캐슬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용마산하늘채</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상봉태영데시앙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -932,8 +949,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -979,15 +1003,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1029,7 +1061,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1061,9 +1093,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1095,6 +1145,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1270,14 +1338,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +1580,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1527,7 +1600,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>40</v>
       </c>
@@ -1535,7 +1608,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="D3">
         <v>70</v>
@@ -1544,7 +1617,7 @@
         <v>1993.02</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>41</v>
       </c>
@@ -1552,7 +1625,7 @@
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>290</v>
       </c>
       <c r="D4">
         <v>76</v>
@@ -1561,129 +1634,219 @@
         <v>1995.04</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>289</v>
       </c>
       <c r="D5">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E5">
-        <v>1995.04</v>
+        <v>2000.09</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>291</v>
       </c>
       <c r="D6">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="E6">
-        <v>2000.09</v>
+        <v>1994.07</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>292</v>
       </c>
       <c r="D7">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E7">
-        <v>1994.07</v>
+        <v>2005.1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>127</v>
+      </c>
+      <c r="S7" t="s">
+        <v>137</v>
+      </c>
+      <c r="T7" t="s">
+        <v>147</v>
+      </c>
+      <c r="U7" t="s">
+        <v>149</v>
+      </c>
+      <c r="V7" t="s">
+        <v>151</v>
+      </c>
+      <c r="W7" t="s">
+        <v>153</v>
+      </c>
+      <c r="X7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>293</v>
       </c>
       <c r="D8">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E8">
-        <v>2005.1</v>
+        <v>2010.12</v>
       </c>
       <c r="R8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="S8" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="T8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="U8" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="V8" t="s">
+        <v>151</v>
+      </c>
+      <c r="W8" t="s">
+        <v>154</v>
+      </c>
+      <c r="X8" t="s">
         <v>163</v>
       </c>
-      <c r="W8" t="s">
-        <v>165</v>
-      </c>
-      <c r="X8" t="s">
-        <v>174</v>
-      </c>
       <c r="Y8" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Z8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AA8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AB8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AC8" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="AD8" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="AE8" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="AF8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AG8" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AH8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AI8" t="s">
-        <v>165</v>
+        <v>202</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>52</v>
       </c>
@@ -1691,7 +1854,7 @@
         <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>294</v>
       </c>
       <c r="D9">
         <v>92</v>
@@ -1700,97 +1863,97 @@
         <v>2010.12</v>
       </c>
       <c r="R9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="S9" t="s">
+        <v>138</v>
+      </c>
+      <c r="T9" t="s">
+        <v>147</v>
+      </c>
+      <c r="U9" t="s">
+        <v>149</v>
+      </c>
+      <c r="V9" t="s">
+        <v>151</v>
+      </c>
+      <c r="W9" t="s">
+        <v>154</v>
+      </c>
+      <c r="X9" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA9" t="s">
         <v>150</v>
       </c>
-      <c r="T9" t="s">
-        <v>159</v>
-      </c>
-      <c r="U9" t="s">
-        <v>161</v>
-      </c>
-      <c r="V9" t="s">
-        <v>163</v>
-      </c>
-      <c r="W9" t="s">
-        <v>166</v>
-      </c>
-      <c r="X9" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>162</v>
-      </c>
       <c r="AB9" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AC9" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="AD9" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="AE9" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AF9" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AG9" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AH9" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AI9" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="AJ9" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AK9" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP9" t="s">
         <v>224</v>
       </c>
-      <c r="AL9" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>232</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>236</v>
-      </c>
       <c r="AQ9" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="AR9" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AS9" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AT9" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AU9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>78</v>
       </c>
@@ -1798,7 +1961,7 @@
         <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>295</v>
       </c>
       <c r="D10">
         <v>161</v>
@@ -1807,7 +1970,7 @@
         <v>2004.11</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>87</v>
       </c>
@@ -1815,7 +1978,7 @@
         <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>296</v>
       </c>
       <c r="D11">
         <v>117</v>
@@ -1824,25 +1987,25 @@
         <v>2003.12</v>
       </c>
       <c r="R11" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="S11" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="T11" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="U11" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="V11" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="W11" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>90</v>
       </c>
@@ -1850,7 +2013,7 @@
         <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>297</v>
       </c>
       <c r="D12">
         <v>70</v>
@@ -1859,97 +2022,97 @@
         <v>2015.1</v>
       </c>
       <c r="R12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="S12" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="T12" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="U12" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="V12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="W12" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="X12" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="Y12" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="Z12" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AA12" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AB12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AC12" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="AD12" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="AE12" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="AF12" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AH12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AI12" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="AJ12" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="AK12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP12" t="s">
         <v>225</v>
       </c>
-      <c r="AL12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>233</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>237</v>
-      </c>
       <c r="AQ12" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="AR12" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="AS12" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AT12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AU12" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>108</v>
       </c>
@@ -1957,7 +2120,7 @@
         <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>298</v>
       </c>
       <c r="D13">
         <v>69</v>
@@ -1966,97 +2129,97 @@
         <v>2003.08</v>
       </c>
       <c r="R13" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="S13" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="T13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="U13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="V13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="W13" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="X13" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="Y13" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="Z13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AA13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="AB13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AC13" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="AD13" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="AE13" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="AF13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AG13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="AH13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AI13" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="AJ13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>141</v>
       </c>
-      <c r="AK13" t="s">
-        <v>226</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>234</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>238</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>153</v>
-      </c>
       <c r="AR13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AS13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AT13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AU13" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:77">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>113</v>
       </c>
@@ -2064,7 +2227,7 @@
         <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>299</v>
       </c>
       <c r="D14">
         <v>86</v>
@@ -2073,7 +2236,7 @@
         <v>1998.02</v>
       </c>
     </row>
-    <row r="15" spans="1:77">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>114</v>
       </c>
@@ -2081,7 +2244,7 @@
         <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D15">
         <v>48</v>
@@ -2090,7 +2253,7 @@
         <v>2003.11</v>
       </c>
     </row>
-    <row r="16" spans="1:77">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>26</v>
       </c>
@@ -2098,7 +2261,7 @@
         <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D16">
         <v>174</v>
@@ -2107,31 +2270,31 @@
         <v>2010.01</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I16" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="J16" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L16" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="M16" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="O16">
         <v>107073</v>
@@ -2143,151 +2306,151 @@
         <v>127.10963</v>
       </c>
       <c r="R16" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="S16" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="T16" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="U16" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="V16" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="W16" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="X16" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="Z16" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AA16" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AB16" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AC16" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AD16" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="AE16" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="AF16" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AG16" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AH16" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AI16" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="AJ16" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="AK16" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP16" t="s">
         <v>227</v>
       </c>
-      <c r="AL16" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>239</v>
-      </c>
       <c r="AQ16" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="AR16" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AS16" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AT16" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AU16" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="BH16" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="BI16" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="BJ16" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="BK16" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="BL16" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="BM16" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="BN16" t="s">
+        <v>264</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>269</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>274</v>
+      </c>
+      <c r="BT16" t="s">
         <v>276</v>
       </c>
-      <c r="BO16" t="s">
+      <c r="BU16" t="s">
         <v>281</v>
       </c>
-      <c r="BP16" t="s">
-        <v>159</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>161</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS16" t="s">
+      <c r="BV16" t="s">
+        <v>147</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>151</v>
+      </c>
+      <c r="BY16" t="s">
         <v>286</v>
       </c>
-      <c r="BT16" t="s">
-        <v>288</v>
-      </c>
-      <c r="BU16" t="s">
-        <v>293</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>159</v>
-      </c>
-      <c r="BW16" t="s">
-        <v>161</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>163</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>298</v>
-      </c>
     </row>
-    <row r="17" spans="1:77">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>72</v>
       </c>
@@ -2295,7 +2458,7 @@
         <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D17">
         <v>38</v>
@@ -2304,31 +2467,31 @@
         <v>2013.12</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="J17" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="K17" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="M17" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="N17" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="O17">
         <v>107073</v>
@@ -2340,151 +2503,151 @@
         <v>127.10963</v>
       </c>
       <c r="R17" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="S17" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="T17" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="U17" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="V17" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="W17" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="X17" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="Z17" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AA17" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AB17" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AC17" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AD17" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="AE17" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="AF17" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AG17" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AH17" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AI17" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="AJ17" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="AK17" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP17" t="s">
         <v>227</v>
       </c>
-      <c r="AL17" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>239</v>
-      </c>
       <c r="AQ17" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="AR17" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AS17" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AT17" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AU17" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="BH17" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="BI17" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="BJ17" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="BK17" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="BL17" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="BM17" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="BN17" t="s">
+        <v>264</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>269</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>274</v>
+      </c>
+      <c r="BT17" t="s">
         <v>276</v>
       </c>
-      <c r="BO17" t="s">
+      <c r="BU17" t="s">
         <v>281</v>
       </c>
-      <c r="BP17" t="s">
-        <v>159</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>161</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS17" t="s">
+      <c r="BV17" t="s">
+        <v>147</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>151</v>
+      </c>
+      <c r="BY17" t="s">
         <v>286</v>
       </c>
-      <c r="BT17" t="s">
-        <v>288</v>
-      </c>
-      <c r="BU17" t="s">
-        <v>293</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>159</v>
-      </c>
-      <c r="BW17" t="s">
-        <v>161</v>
-      </c>
-      <c r="BX17" t="s">
-        <v>163</v>
-      </c>
-      <c r="BY17" t="s">
-        <v>298</v>
-      </c>
     </row>
-    <row r="18" spans="1:77">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>73</v>
       </c>
@@ -2492,7 +2655,7 @@
         <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D18">
         <v>222</v>
@@ -2501,205 +2664,205 @@
         <v>2014.06</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J18" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K18" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="M18" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="N18" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="O18">
         <v>108142</v>
       </c>
       <c r="P18">
-        <v>37.617595</v>
+        <v>37.617595000000001</v>
       </c>
       <c r="Q18">
         <v>127.10677</v>
       </c>
       <c r="R18" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="S18" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="T18" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="U18" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="V18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="W18" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="X18" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="Y18" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="Z18" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AA18" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AB18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AC18" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="AD18" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="AE18" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="AF18" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AG18" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AH18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AI18" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="AJ18" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="AK18" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP18" t="s">
         <v>228</v>
       </c>
-      <c r="AL18" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>240</v>
-      </c>
       <c r="AQ18" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="AR18" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AS18" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AT18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="AU18" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="AV18" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="AW18" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>246</v>
+      </c>
+      <c r="BH18" t="s">
         <v>254</v>
       </c>
-      <c r="AX18" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>161</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>163</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>258</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>266</v>
-      </c>
       <c r="BI18" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="BJ18" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="BK18" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="BL18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="BM18" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="BN18" t="s">
+        <v>265</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>270</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>158</v>
+      </c>
+      <c r="BT18" t="s">
         <v>277</v>
       </c>
-      <c r="BO18" t="s">
+      <c r="BU18" t="s">
         <v>282</v>
       </c>
-      <c r="BP18" t="s">
-        <v>159</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>161</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS18" t="s">
-        <v>170</v>
-      </c>
-      <c r="BT18" t="s">
-        <v>289</v>
-      </c>
-      <c r="BU18" t="s">
-        <v>294</v>
-      </c>
       <c r="BV18" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="BW18" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="BX18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="BY18" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:77">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>94</v>
       </c>
@@ -2707,7 +2870,7 @@
         <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D19">
         <v>69</v>
@@ -2716,223 +2879,223 @@
         <v>1976.1</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="J19" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K19" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L19" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M19" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="N19" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="O19">
         <v>3846</v>
       </c>
       <c r="P19">
-        <v>37.606458</v>
+        <v>37.606458000000003</v>
       </c>
       <c r="Q19">
         <v>127.077468</v>
       </c>
       <c r="R19" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="S19" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="T19" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="U19" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="V19" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="W19" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="X19" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="Y19" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="Z19" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AA19" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="AB19" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="AC19" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="AD19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI19" t="s">
         <v>204</v>
       </c>
-      <c r="AE19" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>216</v>
-      </c>
       <c r="AJ19" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="AK19" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP19" t="s">
         <v>229</v>
       </c>
-      <c r="AL19" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>241</v>
-      </c>
       <c r="AQ19" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AR19" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AS19" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="AT19" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="AU19" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AV19" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="AW19" t="s">
+        <v>243</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>247</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>152</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH19" t="s">
         <v>255</v>
       </c>
-      <c r="AX19" t="s">
-        <v>161</v>
-      </c>
-      <c r="AY19" t="s">
-        <v>162</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>164</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>259</v>
-      </c>
-      <c r="BB19" t="s">
+      <c r="BI19" t="s">
         <v>260</v>
       </c>
-      <c r="BC19" t="s">
-        <v>262</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>161</v>
-      </c>
-      <c r="BE19" t="s">
-        <v>162</v>
-      </c>
-      <c r="BF19" t="s">
-        <v>164</v>
-      </c>
-      <c r="BG19" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>267</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>272</v>
-      </c>
       <c r="BJ19" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="BK19" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="BL19" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="BM19" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="BN19" t="s">
+        <v>266</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>271</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>149</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>150</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>152</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>275</v>
+      </c>
+      <c r="BT19" t="s">
         <v>278</v>
       </c>
-      <c r="BO19" t="s">
+      <c r="BU19" t="s">
         <v>283</v>
       </c>
-      <c r="BP19" t="s">
-        <v>161</v>
-      </c>
-      <c r="BQ19" t="s">
-        <v>162</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>164</v>
-      </c>
-      <c r="BS19" t="s">
-        <v>287</v>
-      </c>
-      <c r="BT19" t="s">
-        <v>290</v>
-      </c>
-      <c r="BU19" t="s">
-        <v>295</v>
-      </c>
       <c r="BV19" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="BW19" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="BX19" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="BY19" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:77">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>101</v>
       </c>
@@ -2940,7 +3103,7 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D20">
         <v>80</v>
@@ -2949,205 +3112,205 @@
         <v>2012.08</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="J20" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="K20" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" t="s">
+        <v>119</v>
+      </c>
+      <c r="M20" t="s">
+        <v>124</v>
+      </c>
+      <c r="N20" t="s">
         <v>126</v>
-      </c>
-      <c r="L20" t="s">
-        <v>131</v>
-      </c>
-      <c r="M20" t="s">
-        <v>136</v>
-      </c>
-      <c r="N20" t="s">
-        <v>138</v>
       </c>
       <c r="O20">
         <v>102941</v>
       </c>
       <c r="P20">
-        <v>37.602451</v>
+        <v>37.602451000000002</v>
       </c>
       <c r="Q20">
         <v>127.104799</v>
       </c>
       <c r="R20" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="S20" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="T20" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="U20" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="V20" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="W20" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="X20" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>230</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>237</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>240</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>244</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>180</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>256</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>151</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>237</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>267</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>272</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>252</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>279</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>284</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>148</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>151</v>
+      </c>
+      <c r="BY20" t="s">
         <v>181</v>
       </c>
-      <c r="Y20" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>197</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>217</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>230</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>235</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>242</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>247</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>161</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>249</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>256</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>161</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>163</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>192</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>268</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>273</v>
-      </c>
-      <c r="BJ20" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>249</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>279</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>284</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>160</v>
-      </c>
-      <c r="BQ20" t="s">
-        <v>161</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS20" t="s">
-        <v>264</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>291</v>
-      </c>
-      <c r="BU20" t="s">
-        <v>296</v>
-      </c>
-      <c r="BV20" t="s">
-        <v>160</v>
-      </c>
-      <c r="BW20" t="s">
-        <v>161</v>
-      </c>
-      <c r="BX20" t="s">
-        <v>163</v>
-      </c>
-      <c r="BY20" t="s">
-        <v>193</v>
-      </c>
     </row>
-    <row r="21" spans="1:77">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>110</v>
       </c>
@@ -3155,7 +3318,7 @@
         <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D21">
         <v>134</v>
@@ -3164,223 +3327,224 @@
         <v>2013.11</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H21" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J21" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K21" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="L21" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M21" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="N21" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="O21">
         <v>102480</v>
       </c>
       <c r="P21">
-        <v>37.598299</v>
+        <v>37.598298999999997</v>
       </c>
       <c r="Q21">
-        <v>127.090364</v>
+        <v>127.09036399999999</v>
       </c>
       <c r="R21" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="S21" t="s">
+        <v>146</v>
+      </c>
+      <c r="T21" t="s">
+        <v>149</v>
+      </c>
+      <c r="U21" t="s">
+        <v>150</v>
+      </c>
+      <c r="V21" t="s">
+        <v>151</v>
+      </c>
+      <c r="W21" t="s">
+        <v>161</v>
+      </c>
+      <c r="X21" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>241</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>245</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA21" t="s">
         <v>158</v>
       </c>
-      <c r="T21" t="s">
-        <v>161</v>
-      </c>
-      <c r="U21" t="s">
-        <v>162</v>
-      </c>
-      <c r="V21" t="s">
-        <v>163</v>
-      </c>
-      <c r="W21" t="s">
-        <v>173</v>
-      </c>
-      <c r="X21" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>173</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>223</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>173</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>243</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>248</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>161</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>173</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>253</v>
-      </c>
-      <c r="AW21" t="s">
+      <c r="BB21" t="s">
+        <v>249</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>251</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>147</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>252</v>
+      </c>
+      <c r="BH21" t="s">
         <v>257</v>
       </c>
-      <c r="AX21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>161</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>163</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>170</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>261</v>
-      </c>
-      <c r="BC21" t="s">
+      <c r="BI21" t="s">
+        <v>251</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>151</v>
+      </c>
+      <c r="BM21" t="s">
         <v>263</v>
       </c>
-      <c r="BD21" t="s">
-        <v>159</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>161</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>163</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>264</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>269</v>
-      </c>
-      <c r="BI21" t="s">
-        <v>263</v>
-      </c>
-      <c r="BJ21" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM21" t="s">
+      <c r="BN21" t="s">
+        <v>268</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>273</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS21" t="s">
         <v>275</v>
       </c>
-      <c r="BN21" t="s">
+      <c r="BT21" t="s">
         <v>280</v>
       </c>
-      <c r="BO21" t="s">
+      <c r="BU21" t="s">
         <v>285</v>
       </c>
-      <c r="BP21" t="s">
-        <v>159</v>
-      </c>
-      <c r="BQ21" t="s">
-        <v>161</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>163</v>
-      </c>
-      <c r="BS21" t="s">
-        <v>287</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>292</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>297</v>
-      </c>
       <c r="BV21" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="BW21" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="BX21" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="BY21" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>